--- a/2025-BBTANAUAN/01 - Preliminary/Sheets/JUDGE 1/02 - Swimwear.xlsx
+++ b/2025-BBTANAUAN/01 - Preliminary/Sheets/JUDGE 1/02 - Swimwear.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05983CD6-ED32-47FF-9067-5C24AF02B599}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E45BDC7-FFA0-421B-92B9-837160118550}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRESWIM" sheetId="1" r:id="rId1"/>
@@ -1030,8 +1030,8 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <pane ySplit="9" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1169,12 +1169,18 @@
       <c r="B10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
+      <c r="C10" s="15">
+        <v>32</v>
+      </c>
+      <c r="D10" s="15">
+        <v>30</v>
+      </c>
+      <c r="E10" s="16">
+        <v>15</v>
+      </c>
       <c r="F10" s="17">
         <f>SUM(C10:E10)</f>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="G10" s="18">
         <f>_xlfn.RANK.AVG(F10,F$10:F$49,0)</f>
@@ -1187,16 +1193,22 @@
       <c r="B11" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
+      <c r="C11" s="20">
+        <v>35</v>
+      </c>
+      <c r="D11" s="20">
+        <v>34</v>
+      </c>
+      <c r="E11" s="21">
+        <v>16</v>
+      </c>
       <c r="F11" s="22">
         <f t="shared" ref="F11:F49" si="0">SUM(C11:E11)</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G11" s="23">
         <f t="shared" ref="G11:G49" si="1">_xlfn.RANK.AVG(F11,F$10:F$49,0)</f>
-        <v>20.5</v>
+        <v>4.5</v>
       </c>
       <c r="H11" s="1"/>
     </row>
@@ -1220,7 +1232,7 @@
       </c>
       <c r="G12" s="27">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>39.5</v>
       </c>
       <c r="H12" s="1"/>
     </row>
@@ -1229,16 +1241,22 @@
       <c r="B13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
+      <c r="C13" s="20">
+        <v>31</v>
+      </c>
+      <c r="D13" s="20">
+        <v>30</v>
+      </c>
+      <c r="E13" s="21">
+        <v>15</v>
+      </c>
       <c r="F13" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="G13" s="23">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>24</v>
       </c>
       <c r="H13" s="1"/>
     </row>
@@ -1247,16 +1265,22 @@
       <c r="B14" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
+      <c r="C14" s="20">
+        <v>31</v>
+      </c>
+      <c r="D14" s="20">
+        <v>30</v>
+      </c>
+      <c r="E14" s="21">
+        <v>15</v>
+      </c>
       <c r="F14" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="G14" s="23">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>24</v>
       </c>
       <c r="H14" s="1"/>
     </row>
@@ -1265,16 +1289,22 @@
       <c r="B15" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
+      <c r="C15" s="20">
+        <v>36</v>
+      </c>
+      <c r="D15" s="20">
+        <v>40</v>
+      </c>
+      <c r="E15" s="21">
+        <v>20</v>
+      </c>
       <c r="F15" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="G15" s="23">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1"/>
     </row>
@@ -1283,16 +1313,22 @@
       <c r="B16" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
+      <c r="C16" s="20">
+        <v>31</v>
+      </c>
+      <c r="D16" s="20">
+        <v>30</v>
+      </c>
+      <c r="E16" s="21">
+        <v>14</v>
+      </c>
       <c r="F16" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G16" s="23">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>32.5</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -1301,16 +1337,22 @@
       <c r="B17" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
+      <c r="C17" s="20">
+        <v>36</v>
+      </c>
+      <c r="D17" s="20">
+        <v>32</v>
+      </c>
+      <c r="E17" s="21">
+        <v>16</v>
+      </c>
       <c r="F17" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G17" s="23">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>6.5</v>
       </c>
       <c r="H17" s="1"/>
     </row>
@@ -1319,16 +1361,22 @@
       <c r="B18" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="21"/>
+      <c r="C18" s="20">
+        <v>31</v>
+      </c>
+      <c r="D18" s="20">
+        <v>31</v>
+      </c>
+      <c r="E18" s="21">
+        <v>13</v>
+      </c>
       <c r="F18" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G18" s="23">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>32.5</v>
       </c>
       <c r="H18" s="1"/>
     </row>
@@ -1337,16 +1385,22 @@
       <c r="B19" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
+      <c r="C19" s="20">
+        <v>31</v>
+      </c>
+      <c r="D19" s="20">
+        <v>31</v>
+      </c>
+      <c r="E19" s="21">
+        <v>13</v>
+      </c>
       <c r="F19" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G19" s="23">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>32.5</v>
       </c>
       <c r="H19" s="1"/>
     </row>
@@ -1355,16 +1409,22 @@
       <c r="B20" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
+      <c r="C20" s="20">
+        <v>30</v>
+      </c>
+      <c r="D20" s="20">
+        <v>31</v>
+      </c>
+      <c r="E20" s="21">
+        <v>14</v>
+      </c>
       <c r="F20" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G20" s="23">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>32.5</v>
       </c>
       <c r="H20" s="1"/>
     </row>
@@ -1373,12 +1433,18 @@
       <c r="B21" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="21"/>
+      <c r="C21" s="20">
+        <v>31</v>
+      </c>
+      <c r="D21" s="20">
+        <v>32</v>
+      </c>
+      <c r="E21" s="21">
+        <v>14</v>
+      </c>
       <c r="F21" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="G21" s="23">
         <f t="shared" si="1"/>
@@ -1391,16 +1457,22 @@
       <c r="B22" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
+      <c r="C22" s="20">
+        <v>34</v>
+      </c>
+      <c r="D22" s="20">
+        <v>33</v>
+      </c>
+      <c r="E22" s="21">
+        <v>13</v>
+      </c>
       <c r="F22" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G22" s="23">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>12</v>
       </c>
       <c r="H22" s="1"/>
     </row>
@@ -1409,16 +1481,22 @@
       <c r="B23" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
+      <c r="C23" s="20">
+        <v>31</v>
+      </c>
+      <c r="D23" s="20">
+        <v>32</v>
+      </c>
+      <c r="E23" s="21">
+        <v>13</v>
+      </c>
       <c r="F23" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="G23" s="23">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>24</v>
       </c>
       <c r="H23" s="1"/>
     </row>
@@ -1427,16 +1505,22 @@
       <c r="B24" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
+      <c r="C24" s="20">
+        <v>31</v>
+      </c>
+      <c r="D24" s="20">
+        <v>32</v>
+      </c>
+      <c r="E24" s="21">
+        <v>12</v>
+      </c>
       <c r="F24" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G24" s="23">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>32.5</v>
       </c>
       <c r="H24" s="1"/>
     </row>
@@ -1445,16 +1529,22 @@
       <c r="B25" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="21"/>
+      <c r="C25" s="20">
+        <v>33</v>
+      </c>
+      <c r="D25" s="20">
+        <v>37</v>
+      </c>
+      <c r="E25" s="21">
+        <v>16</v>
+      </c>
       <c r="F25" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G25" s="23">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>3</v>
       </c>
       <c r="H25" s="1"/>
     </row>
@@ -1463,16 +1553,22 @@
       <c r="B26" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="21"/>
+      <c r="C26" s="20">
+        <v>31</v>
+      </c>
+      <c r="D26" s="20">
+        <v>31</v>
+      </c>
+      <c r="E26" s="21">
+        <v>14</v>
+      </c>
       <c r="F26" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="G26" s="23">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>24</v>
       </c>
       <c r="H26" s="1"/>
     </row>
@@ -1481,16 +1577,22 @@
       <c r="B27" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="21"/>
+      <c r="C27" s="20">
+        <v>33</v>
+      </c>
+      <c r="D27" s="20">
+        <v>34</v>
+      </c>
+      <c r="E27" s="21">
+        <v>16</v>
+      </c>
       <c r="F27" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="G27" s="23">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>8</v>
       </c>
       <c r="H27" s="1"/>
     </row>
@@ -1499,16 +1601,22 @@
       <c r="B28" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="21"/>
+      <c r="C28" s="20">
+        <v>31</v>
+      </c>
+      <c r="D28" s="20">
+        <v>33</v>
+      </c>
+      <c r="E28" s="21">
+        <v>14</v>
+      </c>
       <c r="F28" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="G28" s="23">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>18</v>
       </c>
       <c r="H28" s="1"/>
     </row>
@@ -1517,16 +1625,22 @@
       <c r="B29" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="21"/>
+      <c r="C29" s="20">
+        <v>31</v>
+      </c>
+      <c r="D29" s="20">
+        <v>31</v>
+      </c>
+      <c r="E29" s="21">
+        <v>13</v>
+      </c>
       <c r="F29" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G29" s="23">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>32.5</v>
       </c>
       <c r="H29" s="1"/>
     </row>
@@ -1535,16 +1649,22 @@
       <c r="B30" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="21"/>
+      <c r="C30" s="20">
+        <v>34</v>
+      </c>
+      <c r="D30" s="20">
+        <v>31</v>
+      </c>
+      <c r="E30" s="21">
+        <v>13</v>
+      </c>
       <c r="F30" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="G30" s="23">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>18</v>
       </c>
       <c r="H30" s="1"/>
     </row>
@@ -1553,16 +1673,22 @@
       <c r="B31" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="21"/>
+      <c r="C31" s="20">
+        <v>32</v>
+      </c>
+      <c r="D31" s="20">
+        <v>31</v>
+      </c>
+      <c r="E31" s="21">
+        <v>17</v>
+      </c>
       <c r="F31" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G31" s="23">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>12</v>
       </c>
       <c r="H31" s="1"/>
     </row>
@@ -1571,16 +1697,22 @@
       <c r="B32" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="21"/>
+      <c r="C32" s="20">
+        <v>30</v>
+      </c>
+      <c r="D32" s="20">
+        <v>31</v>
+      </c>
+      <c r="E32" s="21">
+        <v>14</v>
+      </c>
       <c r="F32" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G32" s="23">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>32.5</v>
       </c>
       <c r="H32" s="1"/>
     </row>
@@ -1589,16 +1721,22 @@
       <c r="B33" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="21"/>
+      <c r="C33" s="20">
+        <v>34</v>
+      </c>
+      <c r="D33" s="20">
+        <v>34</v>
+      </c>
+      <c r="E33" s="21">
+        <v>12</v>
+      </c>
       <c r="F33" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G33" s="23">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>12</v>
       </c>
       <c r="H33" s="1"/>
     </row>
@@ -1607,16 +1745,22 @@
       <c r="B34" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="21"/>
+      <c r="C34" s="20">
+        <v>31</v>
+      </c>
+      <c r="D34" s="20">
+        <v>31</v>
+      </c>
+      <c r="E34" s="21">
+        <v>13</v>
+      </c>
       <c r="F34" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G34" s="23">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>32.5</v>
       </c>
       <c r="H34" s="1"/>
     </row>
@@ -1640,7 +1784,7 @@
       </c>
       <c r="G35" s="27">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>39.5</v>
       </c>
       <c r="H35" s="1"/>
     </row>
@@ -1649,16 +1793,22 @@
       <c r="B36" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="21"/>
+      <c r="C36" s="20">
+        <v>31</v>
+      </c>
+      <c r="D36" s="20">
+        <v>34</v>
+      </c>
+      <c r="E36" s="21">
+        <v>16</v>
+      </c>
       <c r="F36" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="G36" s="23">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>9.5</v>
       </c>
       <c r="H36" s="1"/>
     </row>
@@ -1667,16 +1817,22 @@
       <c r="B37" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="21"/>
+      <c r="C37" s="20">
+        <v>35</v>
+      </c>
+      <c r="D37" s="20">
+        <v>34</v>
+      </c>
+      <c r="E37" s="21">
+        <v>16</v>
+      </c>
       <c r="F37" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G37" s="23">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>4.5</v>
       </c>
       <c r="H37" s="1"/>
     </row>
@@ -1685,16 +1841,22 @@
       <c r="B38" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="21"/>
+      <c r="C38" s="20">
+        <v>31</v>
+      </c>
+      <c r="D38" s="20">
+        <v>31</v>
+      </c>
+      <c r="E38" s="21">
+        <v>13</v>
+      </c>
       <c r="F38" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G38" s="23">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>32.5</v>
       </c>
       <c r="H38" s="1"/>
     </row>
@@ -1703,16 +1865,22 @@
       <c r="B39" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="21"/>
+      <c r="C39" s="20">
+        <v>33</v>
+      </c>
+      <c r="D39" s="20">
+        <v>31</v>
+      </c>
+      <c r="E39" s="21">
+        <v>15</v>
+      </c>
       <c r="F39" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="G39" s="23">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>15</v>
       </c>
       <c r="H39" s="1"/>
     </row>
@@ -1721,16 +1889,22 @@
       <c r="B40" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="21"/>
+      <c r="C40" s="20">
+        <v>32</v>
+      </c>
+      <c r="D40" s="20">
+        <v>32</v>
+      </c>
+      <c r="E40" s="21">
+        <v>17</v>
+      </c>
       <c r="F40" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="G40" s="23">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>9.5</v>
       </c>
       <c r="H40" s="1"/>
     </row>
@@ -1739,16 +1913,22 @@
       <c r="B41" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="21"/>
+      <c r="C41" s="20">
+        <v>31</v>
+      </c>
+      <c r="D41" s="20">
+        <v>31</v>
+      </c>
+      <c r="E41" s="21">
+        <v>13</v>
+      </c>
       <c r="F41" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G41" s="23">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>32.5</v>
       </c>
       <c r="H41" s="1"/>
     </row>
@@ -1757,16 +1937,22 @@
       <c r="B42" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="21"/>
+      <c r="C42" s="20">
+        <v>30</v>
+      </c>
+      <c r="D42" s="20">
+        <v>31</v>
+      </c>
+      <c r="E42" s="21">
+        <v>17</v>
+      </c>
       <c r="F42" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="G42" s="23">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>18</v>
       </c>
       <c r="H42" s="1"/>
     </row>
@@ -1775,16 +1961,22 @@
       <c r="B43" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="21"/>
+      <c r="C43" s="20">
+        <v>34</v>
+      </c>
+      <c r="D43" s="20">
+        <v>35</v>
+      </c>
+      <c r="E43" s="21">
+        <v>15</v>
+      </c>
       <c r="F43" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G43" s="23">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>6.5</v>
       </c>
       <c r="H43" s="1"/>
     </row>
@@ -1793,16 +1985,22 @@
       <c r="B44" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="21"/>
+      <c r="C44" s="20">
+        <v>33</v>
+      </c>
+      <c r="D44" s="20">
+        <v>31</v>
+      </c>
+      <c r="E44" s="21">
+        <v>15</v>
+      </c>
       <c r="F44" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="G44" s="23">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>15</v>
       </c>
       <c r="H44" s="1"/>
     </row>
@@ -1811,16 +2009,22 @@
       <c r="B45" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="21"/>
+      <c r="C45" s="20">
+        <v>32</v>
+      </c>
+      <c r="D45" s="20">
+        <v>31</v>
+      </c>
+      <c r="E45" s="21">
+        <v>12</v>
+      </c>
       <c r="F45" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G45" s="23">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>32.5</v>
       </c>
       <c r="H45" s="1"/>
     </row>
@@ -1829,16 +2033,22 @@
       <c r="B46" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="21"/>
+      <c r="C46" s="20">
+        <v>38</v>
+      </c>
+      <c r="D46" s="20">
+        <v>37</v>
+      </c>
+      <c r="E46" s="21">
+        <v>18</v>
+      </c>
       <c r="F46" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G46" s="23">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>2</v>
       </c>
       <c r="H46" s="1"/>
     </row>
@@ -1847,16 +2057,22 @@
       <c r="B47" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="21"/>
+      <c r="C47" s="20">
+        <v>31</v>
+      </c>
+      <c r="D47" s="20">
+        <v>34</v>
+      </c>
+      <c r="E47" s="21">
+        <v>14</v>
+      </c>
       <c r="F47" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="G47" s="23">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>15</v>
       </c>
       <c r="H47" s="1"/>
     </row>
@@ -1865,16 +2081,22 @@
       <c r="B48" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="21"/>
+      <c r="C48" s="20">
+        <v>31</v>
+      </c>
+      <c r="D48" s="20">
+        <v>31</v>
+      </c>
+      <c r="E48" s="21">
+        <v>13</v>
+      </c>
       <c r="F48" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G48" s="23">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>32.5</v>
       </c>
       <c r="H48" s="1"/>
     </row>
@@ -1883,16 +2105,22 @@
       <c r="B49" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="31"/>
+      <c r="C49" s="30">
+        <v>32</v>
+      </c>
+      <c r="D49" s="30">
+        <v>32</v>
+      </c>
+      <c r="E49" s="31">
+        <v>12</v>
+      </c>
       <c r="F49" s="32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="G49" s="33">
         <f t="shared" si="1"/>
-        <v>20.5</v>
+        <v>24</v>
       </c>
       <c r="H49" s="1"/>
     </row>
